--- a/dist/document/dest/2020/10/vinh.xlsx
+++ b/dist/document/dest/2020/10/vinh.xlsx
@@ -12,18 +12,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="83">
   <si>
     <t>Công ty TNHH Dược Phẩm Hoàng Trân</t>
   </si>
   <si>
-    <t>Trình Dược Viên: Vinh</t>
+    <t>TDV: Vinh</t>
   </si>
   <si>
     <t>BẢNG CHIẾT KHẤU TỔNG HỢP</t>
   </si>
   <si>
-    <t>01/09 -&gt; 30/09/2020</t>
+    <t>27/10/2020</t>
   </si>
   <si>
     <t>STT</t>
@@ -158,12 +158,6 @@
     <t>Mon</t>
   </si>
   <si>
-    <t>Trần Văn</t>
-  </si>
-  <si>
-    <t>Nam</t>
-  </si>
-  <si>
     <t>Nguyễn Thuý</t>
   </si>
   <si>
@@ -230,12 +224,6 @@
     <t>Thư</t>
   </si>
   <si>
-    <t>Lê Đình</t>
-  </si>
-  <si>
-    <t>Tín</t>
-  </si>
-  <si>
     <t>Phạm Huỳnh Bảo</t>
   </si>
   <si>
@@ -264,21 +252,6 @@
   </si>
   <si>
     <t>Vân</t>
-  </si>
-  <si>
-    <t>Nguyễn Thy</t>
-  </si>
-  <si>
-    <t>Anh</t>
-  </si>
-  <si>
-    <t>Khuê</t>
-  </si>
-  <si>
-    <t>Võ Nguyễn Thành</t>
-  </si>
-  <si>
-    <t>Nhân</t>
   </si>
   <si>
     <t>Trương Công</t>
@@ -749,7 +722,7 @@
     <col min="3" max="4" width="12" style="1" customWidth="1"/>
     <col min="5" max="5" width="20" style="1" customWidth="1"/>
     <col min="6" max="6" width="7" style="1" customWidth="1"/>
-    <col min="7" max="7" width="16" style="1" customWidth="1"/>
+    <col min="7" max="7" width="20" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="16" customHeight="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -827,19 +800,19 @@
         <v>11</v>
       </c>
       <c r="C6" s="10">
-        <v>14439</v>
+        <v>12543</v>
       </c>
       <c r="D6" s="10">
         <v>14700</v>
       </c>
       <c r="E6" s="10">
-        <v>212253300</v>
+        <v>184382100</v>
       </c>
       <c r="F6" s="10">
         <v>54</v>
       </c>
       <c r="G6" s="10">
-        <v>114616782</v>
+        <v>99566334</v>
       </c>
     </row>
     <row r="7" ht="16" customHeight="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -850,19 +823,19 @@
         <v>12</v>
       </c>
       <c r="C7" s="10">
-        <v>192</v>
+        <v>280</v>
       </c>
       <c r="D7" s="10">
         <v>7900</v>
       </c>
       <c r="E7" s="10">
-        <v>1516800</v>
+        <v>2212000</v>
       </c>
       <c r="F7" s="10">
         <v>53</v>
       </c>
       <c r="G7" s="10">
-        <v>803904</v>
+        <v>1172360</v>
       </c>
     </row>
     <row r="8" ht="16" customHeight="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -873,19 +846,19 @@
         <v>13</v>
       </c>
       <c r="C8" s="10">
-        <v>1866</v>
+        <v>1697</v>
       </c>
       <c r="D8" s="10">
         <v>3600</v>
       </c>
       <c r="E8" s="10">
-        <v>6717600</v>
+        <v>6109200</v>
       </c>
       <c r="F8" s="10">
         <v>55</v>
       </c>
       <c r="G8" s="10">
-        <v>3694680</v>
+        <v>3360060</v>
       </c>
     </row>
     <row r="9" ht="20" customHeight="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -894,15 +867,15 @@
       </c>
       <c r="B9" s="7"/>
       <c r="C9" s="11">
-        <v>16497</v>
+        <v>14520</v>
       </c>
       <c r="D9" s="11"/>
       <c r="E9" s="11">
-        <v>220487700</v>
+        <v>192703300</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="11">
-        <v>119115366</v>
+        <v>104098754</v>
       </c>
     </row>
     <row r="10" ht="16" customHeight="1" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -930,7 +903,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E56"/>
+  <dimension ref="A1:E50"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="2" width="5" customWidth="1"/>
@@ -998,7 +971,7 @@
       <c r="C6" s="13"/>
       <c r="D6" s="13"/>
       <c r="E6" s="14">
-        <v>14439</v>
+        <v>12543</v>
       </c>
     </row>
     <row r="7" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -1013,7 +986,7 @@
         <v>19</v>
       </c>
       <c r="E7" s="10">
-        <v>54</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -1028,7 +1001,7 @@
         <v>21</v>
       </c>
       <c r="E8" s="10">
-        <v>1121</v>
+        <v>936</v>
       </c>
     </row>
     <row r="9" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -1043,7 +1016,7 @@
         <v>23</v>
       </c>
       <c r="E9" s="10">
-        <v>1400</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="10" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -1058,7 +1031,7 @@
         <v>25</v>
       </c>
       <c r="E10" s="10">
-        <v>80</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -1073,7 +1046,7 @@
         <v>27</v>
       </c>
       <c r="E11" s="10">
-        <v>96</v>
+        <v>108</v>
       </c>
     </row>
     <row r="12" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -1088,7 +1061,7 @@
         <v>27</v>
       </c>
       <c r="E12" s="10">
-        <v>144</v>
+        <v>236</v>
       </c>
     </row>
     <row r="13" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -1103,7 +1076,7 @@
         <v>27</v>
       </c>
       <c r="E13" s="10">
-        <v>55</v>
+        <v>81</v>
       </c>
     </row>
     <row r="14" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -1118,7 +1091,7 @@
         <v>31</v>
       </c>
       <c r="E14" s="10">
-        <v>356</v>
+        <v>250</v>
       </c>
     </row>
     <row r="15" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -1133,7 +1106,7 @@
         <v>33</v>
       </c>
       <c r="E15" s="10">
-        <v>460</v>
+        <v>390</v>
       </c>
     </row>
     <row r="16" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -1148,7 +1121,7 @@
         <v>35</v>
       </c>
       <c r="E16" s="10">
-        <v>338</v>
+        <v>64</v>
       </c>
     </row>
     <row r="17" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -1163,7 +1136,7 @@
         <v>37</v>
       </c>
       <c r="E17" s="10">
-        <v>260</v>
+        <v>544</v>
       </c>
     </row>
     <row r="18" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -1178,7 +1151,7 @@
         <v>39</v>
       </c>
       <c r="E18" s="10">
-        <v>246</v>
+        <v>406</v>
       </c>
     </row>
     <row r="19" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -1193,7 +1166,7 @@
         <v>41</v>
       </c>
       <c r="E19" s="10">
-        <v>44</v>
+        <v>68</v>
       </c>
     </row>
     <row r="20" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -1208,7 +1181,7 @@
         <v>43</v>
       </c>
       <c r="E20" s="10">
-        <v>74</v>
+        <v>294</v>
       </c>
     </row>
     <row r="21" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -1223,7 +1196,7 @@
         <v>45</v>
       </c>
       <c r="E21" s="10">
-        <v>160</v>
+        <v>70</v>
       </c>
     </row>
     <row r="22" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -1238,7 +1211,7 @@
         <v>47</v>
       </c>
       <c r="E22" s="10">
-        <v>301</v>
+        <v>231</v>
       </c>
     </row>
     <row r="23" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -1253,7 +1226,7 @@
         <v>49</v>
       </c>
       <c r="E23" s="10">
-        <v>80</v>
+        <v>180</v>
       </c>
     </row>
     <row r="24" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -1268,7 +1241,7 @@
         <v>51</v>
       </c>
       <c r="E24" s="10">
-        <v>94</v>
+        <v>2590</v>
       </c>
     </row>
     <row r="25" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -1283,7 +1256,7 @@
         <v>53</v>
       </c>
       <c r="E25" s="10">
-        <v>3350</v>
+        <v>66</v>
       </c>
     </row>
     <row r="26" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -1298,7 +1271,7 @@
         <v>55</v>
       </c>
       <c r="E26" s="10">
-        <v>146</v>
+        <v>30</v>
       </c>
     </row>
     <row r="27" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -1313,7 +1286,7 @@
         <v>57</v>
       </c>
       <c r="E27" s="10">
-        <v>124</v>
+        <v>322</v>
       </c>
     </row>
     <row r="28" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -1328,7 +1301,7 @@
         <v>59</v>
       </c>
       <c r="E28" s="10">
-        <v>248</v>
+        <v>881</v>
       </c>
     </row>
     <row r="29" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -1343,7 +1316,7 @@
         <v>61</v>
       </c>
       <c r="E29" s="10">
-        <v>1307</v>
+        <v>681</v>
       </c>
     </row>
     <row r="30" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -1358,7 +1331,7 @@
         <v>63</v>
       </c>
       <c r="E30" s="10">
-        <v>407</v>
+        <v>650</v>
       </c>
     </row>
     <row r="31" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -1373,7 +1346,7 @@
         <v>65</v>
       </c>
       <c r="E31" s="10">
-        <v>934</v>
+        <v>168</v>
       </c>
     </row>
     <row r="32" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -1388,7 +1361,7 @@
         <v>67</v>
       </c>
       <c r="E32" s="10">
-        <v>186</v>
+        <v>124</v>
       </c>
     </row>
     <row r="33" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -1403,7 +1376,7 @@
         <v>69</v>
       </c>
       <c r="E33" s="10">
-        <v>74</v>
+        <v>671</v>
       </c>
     </row>
     <row r="34" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -1418,7 +1391,7 @@
         <v>71</v>
       </c>
       <c r="E34" s="10">
-        <v>1058</v>
+        <v>120</v>
       </c>
     </row>
     <row r="35" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -1433,7 +1406,7 @@
         <v>73</v>
       </c>
       <c r="E35" s="10">
-        <v>20</v>
+        <v>50</v>
       </c>
     </row>
     <row r="36" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -1448,7 +1421,7 @@
         <v>75</v>
       </c>
       <c r="E36" s="10">
-        <v>220</v>
+        <v>138</v>
       </c>
     </row>
     <row r="37" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -1463,7 +1436,7 @@
         <v>77</v>
       </c>
       <c r="E37" s="10">
-        <v>68</v>
+        <v>152</v>
       </c>
     </row>
     <row r="38" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -1478,50 +1451,48 @@
         <v>79</v>
       </c>
       <c r="E38" s="10">
-        <v>314</v>
+        <v>522</v>
       </c>
     </row>
     <row r="39" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="9"/>
-      <c r="B39" s="9">
-        <v>33</v>
-      </c>
-      <c r="C39" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="D39" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="E39" s="10">
-        <v>70</v>
+      <c r="A39" s="13">
+        <v>2</v>
+      </c>
+      <c r="B39" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C39" s="13"/>
+      <c r="D39" s="13"/>
+      <c r="E39" s="14">
+        <v>280</v>
       </c>
     </row>
     <row r="40" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="9"/>
       <c r="B40" s="9">
-        <v>34</v>
+        <v>1</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>82</v>
+        <v>60</v>
       </c>
       <c r="D40" s="9" t="s">
-        <v>83</v>
+        <v>61</v>
       </c>
       <c r="E40" s="10">
-        <v>550</v>
+        <v>280</v>
       </c>
     </row>
     <row r="41" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B41" s="13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C41" s="13"/>
       <c r="D41" s="13"/>
       <c r="E41" s="14">
-        <v>192</v>
+        <v>1697</v>
       </c>
     </row>
     <row r="42" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -1530,207 +1501,119 @@
         <v>1</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>62</v>
+        <v>20</v>
       </c>
       <c r="D42" s="9" t="s">
-        <v>63</v>
+        <v>21</v>
       </c>
       <c r="E42" s="10">
-        <v>192</v>
+        <v>711</v>
       </c>
     </row>
     <row r="43" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="13">
-        <v>3</v>
-      </c>
-      <c r="B43" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="C43" s="13"/>
-      <c r="D43" s="13"/>
-      <c r="E43" s="14">
-        <v>1866</v>
+      <c r="A43" s="9"/>
+      <c r="B43" s="9">
+        <v>2</v>
+      </c>
+      <c r="C43" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D43" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E43" s="10">
+        <v>90</v>
       </c>
     </row>
     <row r="44" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="9"/>
       <c r="B44" s="9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C44" s="9" t="s">
-        <v>84</v>
+        <v>32</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>85</v>
+        <v>33</v>
       </c>
       <c r="E44" s="10">
-        <v>0</v>
+        <v>360</v>
       </c>
     </row>
     <row r="45" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="9"/>
       <c r="B45" s="9">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C45" s="9" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="D45" s="9" t="s">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="E45" s="10">
-        <v>708</v>
+        <v>90</v>
       </c>
     </row>
     <row r="46" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="9"/>
       <c r="B46" s="9">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C46" s="9" t="s">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="D46" s="9" t="s">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="E46" s="10">
-        <v>90</v>
+        <v>180</v>
       </c>
     </row>
     <row r="47" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="9"/>
       <c r="B47" s="9">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D47" s="9" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="E47" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="9"/>
-      <c r="B48" s="9">
-        <v>5</v>
-      </c>
-      <c r="C48" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="D48" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="E48" s="10">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="49" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="9"/>
-      <c r="B49" s="9">
-        <v>6</v>
-      </c>
-      <c r="C49" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="D49" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="E49" s="10">
-        <v>210</v>
-      </c>
-    </row>
+        <v>266</v>
+      </c>
+    </row>
+    <row r="48" ht="20" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="B48" s="7"/>
+      <c r="C48" s="7"/>
+      <c r="D48" s="7"/>
+      <c r="E48" s="11">
+        <v>14520</v>
+      </c>
+    </row>
+    <row r="49" ht="16" customHeight="1" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="50" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="9"/>
-      <c r="B50" s="9">
-        <v>7</v>
-      </c>
-      <c r="C50" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="D50" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="E50" s="10">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="51" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="9"/>
-      <c r="B51" s="9">
-        <v>8</v>
-      </c>
-      <c r="C51" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="D51" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="E51" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="9"/>
-      <c r="B52" s="9">
-        <v>9</v>
-      </c>
-      <c r="C52" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="D52" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="E52" s="10">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="53" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="9"/>
-      <c r="B53" s="9">
-        <v>10</v>
-      </c>
-      <c r="C53" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="D53" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="E53" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" ht="20" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="B54" s="7"/>
-      <c r="C54" s="7"/>
-      <c r="D54" s="7"/>
-      <c r="E54" s="11">
-        <v>16497</v>
-      </c>
-    </row>
-    <row r="55" ht="16" customHeight="1" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="56" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="12" t="s">
+      <c r="A50" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B56" s="3"/>
-      <c r="C56" s="3"/>
-      <c r="D56" s="3"/>
-      <c r="E56" s="4"/>
+      <c r="B50" s="3"/>
+      <c r="C50" s="3"/>
+      <c r="D50" s="3"/>
+      <c r="E50" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="A3:E3"/>
     <mergeCell ref="B5:D5"/>
     <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B39:D39"/>
     <mergeCell ref="B41:D41"/>
-    <mergeCell ref="B43:D43"/>
-    <mergeCell ref="A54:D54"/>
+    <mergeCell ref="A48:D48"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
